--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/98/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/98/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>1.77449</v>
+        <v>2.24424</v>
       </c>
       <c r="C4" t="n">
-        <v>1774.49</v>
+        <v>2244.24</v>
       </c>
     </row>
     <row r="5">
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>2.13379</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>2133.79</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.124015</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>2.39466</v>
+        <v>4.399850000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>2394.66</v>
+        <v>4399.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.155045</v>
+        <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>2.6524</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>2652.4</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.186021</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>2.84985</v>
+        <v>6.667590000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>2849.85</v>
+        <v>6667.59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216998</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>2.98436</v>
+        <v>7.84248</v>
       </c>
       <c r="C9" t="n">
-        <v>2984.36</v>
+        <v>7842.48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247944</v>
+        <v>0.247925</v>
       </c>
       <c r="B10" t="n">
-        <v>3.08444</v>
+        <v>8.528219999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>3084.44</v>
+        <v>8528.219999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278869</v>
+        <v>0.27885</v>
       </c>
       <c r="B11" t="n">
-        <v>3.15706</v>
+        <v>8.91967</v>
       </c>
       <c r="C11" t="n">
-        <v>3157.06</v>
+        <v>8919.67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309794</v>
+        <v>0.309775</v>
       </c>
       <c r="B12" t="n">
-        <v>3.21853</v>
+        <v>9.226000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>3218.53</v>
+        <v>9226</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340719</v>
+        <v>0.3407</v>
       </c>
       <c r="B13" t="n">
-        <v>3.26911</v>
+        <v>9.33708</v>
       </c>
       <c r="C13" t="n">
-        <v>3269.11</v>
+        <v>9337.08</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371644</v>
+        <v>0.371625</v>
       </c>
       <c r="B14" t="n">
-        <v>3.31933</v>
+        <v>9.37421</v>
       </c>
       <c r="C14" t="n">
-        <v>3319.33</v>
+        <v>9374.209999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402569</v>
+        <v>0.40255</v>
       </c>
       <c r="B15" t="n">
-        <v>3.36469</v>
+        <v>9.379629999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>3364.69</v>
+        <v>9379.629999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433494</v>
+        <v>0.433475</v>
       </c>
       <c r="B16" t="n">
-        <v>3.40092</v>
+        <v>9.373959999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>3400.92</v>
+        <v>9373.959999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464419</v>
+        <v>0.4644</v>
       </c>
       <c r="B17" t="n">
-        <v>3.43859</v>
+        <v>9.36421</v>
       </c>
       <c r="C17" t="n">
-        <v>3438.59</v>
+        <v>9364.209999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495344</v>
+        <v>0.495325</v>
       </c>
       <c r="B18" t="n">
-        <v>3.47512</v>
+        <v>9.35305</v>
       </c>
       <c r="C18" t="n">
-        <v>3475.12</v>
+        <v>9353.049999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526269</v>
+        <v>0.52625</v>
       </c>
       <c r="B19" t="n">
-        <v>3.50596</v>
+        <v>9.339200000000002</v>
       </c>
       <c r="C19" t="n">
-        <v>3505.96</v>
+        <v>9339.200000000001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557194</v>
+        <v>0.557176</v>
       </c>
       <c r="B20" t="n">
-        <v>3.5392</v>
+        <v>9.32498</v>
       </c>
       <c r="C20" t="n">
-        <v>3539.2</v>
+        <v>9324.98</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5881189999999999</v>
+        <v>0.588101</v>
       </c>
       <c r="B21" t="n">
-        <v>3.56913</v>
+        <v>9.3086</v>
       </c>
       <c r="C21" t="n">
-        <v>3569.13</v>
+        <v>9308.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619161</v>
+        <v>0.619143</v>
       </c>
       <c r="B22" t="n">
-        <v>3.59646</v>
+        <v>9.291980000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>3596.46</v>
+        <v>9291.98</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650334</v>
+        <v>0.650315</v>
       </c>
       <c r="B23" t="n">
-        <v>3.62597</v>
+        <v>9.27332</v>
       </c>
       <c r="C23" t="n">
-        <v>3625.97</v>
+        <v>9273.32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681511</v>
+        <v>0.681488</v>
       </c>
       <c r="B24" t="n">
-        <v>3.6521</v>
+        <v>9.253629999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>3652.1</v>
+        <v>9253.629999999999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712683</v>
+        <v>0.712665</v>
       </c>
       <c r="B25" t="n">
-        <v>3.67741</v>
+        <v>9.232250000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>3677.41</v>
+        <v>9232.25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743856</v>
+        <v>0.743837</v>
       </c>
       <c r="B26" t="n">
-        <v>3.70249</v>
+        <v>9.20987</v>
       </c>
       <c r="C26" t="n">
-        <v>3702.49</v>
+        <v>9209.870000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775033</v>
+        <v>0.775014</v>
       </c>
       <c r="B27" t="n">
-        <v>3.72621</v>
+        <v>9.186069999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>3726.21</v>
+        <v>9186.07</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806206</v>
+        <v>0.806187</v>
       </c>
       <c r="B28" t="n">
-        <v>3.74908</v>
+        <v>9.161440000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>3749.08</v>
+        <v>9161.440000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837378</v>
+        <v>0.837359</v>
       </c>
       <c r="B29" t="n">
-        <v>3.77179</v>
+        <v>9.135700000000002</v>
       </c>
       <c r="C29" t="n">
-        <v>3771.79</v>
+        <v>9135.700000000001</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868555</v>
+        <v>0.868536</v>
       </c>
       <c r="B30" t="n">
-        <v>3.79381</v>
+        <v>9.108889999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>3793.81</v>
+        <v>9108.889999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899728</v>
+        <v>0.899709</v>
       </c>
       <c r="B31" t="n">
-        <v>3.81491</v>
+        <v>9.080909999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>3814.91</v>
+        <v>9080.91</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9308999999999999</v>
+        <v>0.930881</v>
       </c>
       <c r="B32" t="n">
-        <v>3.8352</v>
+        <v>9.051680000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>3835.2</v>
+        <v>9051.68</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962077</v>
+        <v>0.962059</v>
       </c>
       <c r="B33" t="n">
-        <v>3.85499</v>
+        <v>9.021030000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>3854.99</v>
+        <v>9021.030000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.99325</v>
+        <v>0.993231</v>
       </c>
       <c r="B34" t="n">
-        <v>3.87438</v>
+        <v>8.988530000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>3874.38</v>
+        <v>8988.530000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02426</v>
+        <v>1.02454</v>
       </c>
       <c r="B35" t="n">
-        <v>3.89328</v>
+        <v>8.954889999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>3893.28</v>
+        <v>8954.889999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05523</v>
+        <v>1.05592</v>
       </c>
       <c r="B36" t="n">
-        <v>3.9117</v>
+        <v>8.91996</v>
       </c>
       <c r="C36" t="n">
-        <v>3911.7</v>
+        <v>8919.959999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.0862</v>
+        <v>1.0873</v>
       </c>
       <c r="B37" t="n">
-        <v>3.92965</v>
+        <v>8.883610000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>3929.65</v>
+        <v>8883.610000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11717</v>
+        <v>1.11868</v>
       </c>
       <c r="B38" t="n">
-        <v>3.94714</v>
+        <v>8.84552</v>
       </c>
       <c r="C38" t="n">
-        <v>3947.14</v>
+        <v>8845.52</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14813</v>
+        <v>1.15006</v>
       </c>
       <c r="B39" t="n">
-        <v>3.96423</v>
+        <v>8.805709999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>3964.23</v>
+        <v>8805.709999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.1791</v>
+        <v>1.18144</v>
       </c>
       <c r="B40" t="n">
-        <v>3.98093</v>
+        <v>8.76432</v>
       </c>
       <c r="C40" t="n">
-        <v>3980.93</v>
+        <v>8764.32</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21007</v>
+        <v>1.21282</v>
       </c>
       <c r="B41" t="n">
-        <v>3.99724</v>
+        <v>8.721290000000002</v>
       </c>
       <c r="C41" t="n">
-        <v>3997.24</v>
+        <v>8721.290000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24104</v>
+        <v>1.2442</v>
       </c>
       <c r="B42" t="n">
-        <v>4.0131</v>
+        <v>8.676399999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>4013.1</v>
+        <v>8676.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27201</v>
+        <v>1.27523</v>
       </c>
       <c r="B43" t="n">
-        <v>4.02866</v>
+        <v>8.629610000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>4028.66</v>
+        <v>8629.610000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30297</v>
+        <v>1.30631</v>
       </c>
       <c r="B44" t="n">
-        <v>4.04386</v>
+        <v>8.580489999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>4043.86</v>
+        <v>8580.49</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33394</v>
+        <v>1.3372</v>
       </c>
       <c r="B45" t="n">
-        <v>4.05875</v>
+        <v>8.52966</v>
       </c>
       <c r="C45" t="n">
-        <v>4058.75</v>
+        <v>8529.66</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36491</v>
+        <v>1.36835</v>
       </c>
       <c r="B46" t="n">
-        <v>4.073300000000001</v>
+        <v>8.476370000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>4073.3</v>
+        <v>8476.370000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39588</v>
+        <v>1.39909</v>
       </c>
       <c r="B47" t="n">
-        <v>4.08754</v>
+        <v>8.42151</v>
       </c>
       <c r="C47" t="n">
-        <v>4087.54</v>
+        <v>8421.51</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42684</v>
+        <v>1.43035</v>
       </c>
       <c r="B48" t="n">
-        <v>4.10154</v>
+        <v>8.36313</v>
       </c>
       <c r="C48" t="n">
-        <v>4101.54</v>
+        <v>8363.129999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45781</v>
+        <v>1.46121</v>
       </c>
       <c r="B49" t="n">
-        <v>4.11517</v>
+        <v>8.302250000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>4115.17</v>
+        <v>8302.25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48878</v>
+        <v>1.49229</v>
       </c>
       <c r="B50" t="n">
-        <v>4.12857</v>
+        <v>8.23812</v>
       </c>
       <c r="C50" t="n">
-        <v>4128.57</v>
+        <v>8238.120000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51974</v>
+        <v>1.52333</v>
       </c>
       <c r="B51" t="n">
-        <v>4.1417</v>
+        <v>8.17146</v>
       </c>
       <c r="C51" t="n">
-        <v>4141.7</v>
+        <v>8171.46</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55072</v>
+        <v>1.55421</v>
       </c>
       <c r="B52" t="n">
-        <v>4.154590000000001</v>
+        <v>8.101739999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>4154.59</v>
+        <v>8101.74</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58168</v>
+        <v>1.58536</v>
       </c>
       <c r="B53" t="n">
-        <v>4.16723</v>
+        <v>8.028220000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>4167.23</v>
+        <v>8028.22</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61265</v>
+        <v>1.61611</v>
       </c>
       <c r="B54" t="n">
-        <v>4.17963</v>
+        <v>7.952310000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>4179.63</v>
+        <v>7952.31</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64362</v>
+        <v>1.64736</v>
       </c>
       <c r="B55" t="n">
-        <v>4.191800000000001</v>
+        <v>7.87187</v>
       </c>
       <c r="C55" t="n">
-        <v>4191.8</v>
+        <v>7871.87</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67458</v>
+        <v>1.67818</v>
       </c>
       <c r="B56" t="n">
-        <v>4.20375</v>
+        <v>7.78923</v>
       </c>
       <c r="C56" t="n">
-        <v>4203.75</v>
+        <v>7789.23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70555</v>
+        <v>1.70938</v>
       </c>
       <c r="B57" t="n">
-        <v>4.21543</v>
+        <v>7.70209</v>
       </c>
       <c r="C57" t="n">
-        <v>4215.43</v>
+        <v>7702.09</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73652</v>
+        <v>1.74022</v>
       </c>
       <c r="B58" t="n">
-        <v>4.22694</v>
+        <v>7.61258</v>
       </c>
       <c r="C58" t="n">
-        <v>4226.94</v>
+        <v>7612.58</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76749</v>
+        <v>1.77134</v>
       </c>
       <c r="B59" t="n">
-        <v>4.23821</v>
+        <v>7.51911</v>
       </c>
       <c r="C59" t="n">
-        <v>4238.21</v>
+        <v>7519.11</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79846</v>
+        <v>1.80223</v>
       </c>
       <c r="B60" t="n">
-        <v>4.24929</v>
+        <v>7.423430000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>4249.29</v>
+        <v>7423.43</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82942</v>
+        <v>1.83341</v>
       </c>
       <c r="B61" t="n">
-        <v>4.26016</v>
+        <v>7.32404</v>
       </c>
       <c r="C61" t="n">
-        <v>4260.16</v>
+        <v>7324.04</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86039</v>
+        <v>1.86419</v>
       </c>
       <c r="B62" t="n">
-        <v>4.27087</v>
+        <v>7.22321</v>
       </c>
       <c r="C62" t="n">
-        <v>4270.87</v>
+        <v>7223.21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89136</v>
+        <v>1.89541</v>
       </c>
       <c r="B63" t="n">
-        <v>4.28139</v>
+        <v>7.11867</v>
       </c>
       <c r="C63" t="n">
-        <v>4281.39</v>
+        <v>7118.67</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92233</v>
+        <v>1.926</v>
       </c>
       <c r="B64" t="n">
-        <v>4.29174</v>
+        <v>7.01398</v>
       </c>
       <c r="C64" t="n">
-        <v>4291.74</v>
+        <v>7013.98</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.9533</v>
+        <v>1.95742</v>
       </c>
       <c r="B65" t="n">
-        <v>4.301880000000001</v>
+        <v>6.90437</v>
       </c>
       <c r="C65" t="n">
-        <v>4301.88</v>
+        <v>6904.37</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98426</v>
+        <v>1.98814</v>
       </c>
       <c r="B66" t="n">
-        <v>4.31182</v>
+        <v>6.795920000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>4311.82</v>
+        <v>6795.92</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01513</v>
+        <v>2.01934</v>
       </c>
       <c r="B67" t="n">
-        <v>4.32161</v>
+        <v>6.684760000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>4321.61</v>
+        <v>6684.76</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04569</v>
+        <v>2.05063</v>
       </c>
       <c r="B68" t="n">
-        <v>4.331180000000001</v>
+        <v>6.57342</v>
       </c>
       <c r="C68" t="n">
-        <v>4331.18</v>
+        <v>6573.42</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07624</v>
+        <v>2.08099</v>
       </c>
       <c r="B69" t="n">
-        <v>4.34063</v>
+        <v>6.46254</v>
       </c>
       <c r="C69" t="n">
-        <v>4340.63</v>
+        <v>6462.54</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.1068</v>
+        <v>2.11261</v>
       </c>
       <c r="B70" t="n">
-        <v>4.349880000000001</v>
+        <v>6.34813</v>
       </c>
       <c r="C70" t="n">
-        <v>4349.88</v>
+        <v>6348.13</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13735</v>
+        <v>2.14333</v>
       </c>
       <c r="B71" t="n">
-        <v>4.35898</v>
+        <v>6.23639</v>
       </c>
       <c r="C71" t="n">
-        <v>4358.98</v>
+        <v>6236.39</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.16791</v>
+        <v>2.17413</v>
       </c>
       <c r="B72" t="n">
-        <v>4.36792</v>
+        <v>6.12524</v>
       </c>
       <c r="C72" t="n">
-        <v>4367.92</v>
+        <v>6125.24</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.19846</v>
+        <v>2.20579</v>
       </c>
       <c r="B73" t="n">
-        <v>4.37669</v>
+        <v>6.01308</v>
       </c>
       <c r="C73" t="n">
-        <v>4376.69</v>
+        <v>6013.08</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.22902</v>
+        <v>2.23619</v>
       </c>
       <c r="B74" t="n">
-        <v>4.38531</v>
+        <v>5.90461</v>
       </c>
       <c r="C74" t="n">
-        <v>4385.31</v>
+        <v>5904.61</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.25957</v>
+        <v>2.26724</v>
       </c>
       <c r="B75" t="n">
-        <v>4.393770000000001</v>
+        <v>5.797260000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>4393.77</v>
+        <v>5797.26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29013</v>
+        <v>2.29795</v>
       </c>
       <c r="B76" t="n">
-        <v>4.402100000000001</v>
+        <v>5.69122</v>
       </c>
       <c r="C76" t="n">
-        <v>4402.1</v>
+        <v>5691.22</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32068</v>
+        <v>2.32868</v>
       </c>
       <c r="B77" t="n">
-        <v>4.410270000000001</v>
+        <v>5.58762</v>
       </c>
       <c r="C77" t="n">
-        <v>4410.27</v>
+        <v>5587.62</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35123</v>
+        <v>2.35962</v>
       </c>
       <c r="B78" t="n">
-        <v>4.41833</v>
+        <v>5.487130000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>4418.33</v>
+        <v>5487.13</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38179</v>
+        <v>2.39082</v>
       </c>
       <c r="B79" t="n">
-        <v>4.426220000000001</v>
+        <v>5.38416</v>
       </c>
       <c r="C79" t="n">
-        <v>4426.22</v>
+        <v>5384.16</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41234</v>
+        <v>2.42191</v>
       </c>
       <c r="B80" t="n">
-        <v>4.43398</v>
+        <v>5.2857</v>
       </c>
       <c r="C80" t="n">
-        <v>4433.98</v>
+        <v>5285.7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44379</v>
+        <v>2.45191</v>
       </c>
       <c r="B81" t="n">
-        <v>4.44184</v>
+        <v>5.19289</v>
       </c>
       <c r="C81" t="n">
-        <v>4441.84</v>
+        <v>5192.89</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47537</v>
+        <v>2.4818</v>
       </c>
       <c r="B82" t="n">
-        <v>4.4496</v>
+        <v>5.1049</v>
       </c>
       <c r="C82" t="n">
-        <v>4449.6</v>
+        <v>5104.9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.50694</v>
+        <v>2.5138</v>
       </c>
       <c r="B83" t="n">
-        <v>4.45722</v>
+        <v>5.01607</v>
       </c>
       <c r="C83" t="n">
-        <v>4457.22</v>
+        <v>5016.07</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.53851</v>
+        <v>2.5458</v>
       </c>
       <c r="B84" t="n">
-        <v>4.46474</v>
+        <v>4.93098</v>
       </c>
       <c r="C84" t="n">
-        <v>4464.74</v>
+        <v>4930.98</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57009</v>
+        <v>2.57664</v>
       </c>
       <c r="B85" t="n">
-        <v>4.4721</v>
+        <v>4.853689999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>4472.1</v>
+        <v>4853.69</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60166</v>
+        <v>2.60876</v>
       </c>
       <c r="B86" t="n">
-        <v>4.479340000000001</v>
+        <v>4.78354</v>
       </c>
       <c r="C86" t="n">
-        <v>4479.34</v>
+        <v>4783.54</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63323</v>
+        <v>2.64033</v>
       </c>
       <c r="B87" t="n">
-        <v>4.48645</v>
+        <v>4.732640000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>4486.45</v>
+        <v>4732.64</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.6648</v>
+        <v>2.67105</v>
       </c>
       <c r="B88" t="n">
-        <v>4.49344</v>
+        <v>4.700979999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>4493.44</v>
+        <v>4700.98</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69638</v>
+        <v>2.70177</v>
       </c>
       <c r="B89" t="n">
-        <v>4.500310000000001</v>
+        <v>4.670739999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>4500.31</v>
+        <v>4670.74</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72795</v>
+        <v>2.73249</v>
       </c>
       <c r="B90" t="n">
-        <v>4.507020000000001</v>
+        <v>4.6415</v>
       </c>
       <c r="C90" t="n">
-        <v>4507.02</v>
+        <v>4641.5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75952</v>
+        <v>2.76099</v>
       </c>
       <c r="B91" t="n">
-        <v>4.51365</v>
+        <v>4.612270000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>4513.65</v>
+        <v>4612.27</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.7911</v>
+        <v>2.78915</v>
       </c>
       <c r="B92" t="n">
-        <v>4.52013</v>
+        <v>4.58538</v>
       </c>
       <c r="C92" t="n">
-        <v>4520.13</v>
+        <v>4585.38</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82267</v>
+        <v>2.81731</v>
       </c>
       <c r="B93" t="n">
-        <v>4.52649</v>
+        <v>4.55745</v>
       </c>
       <c r="C93" t="n">
-        <v>4526.49</v>
+        <v>4557.45</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85418</v>
+        <v>2.84547</v>
       </c>
       <c r="B94" t="n">
-        <v>4.532760000000001</v>
+        <v>4.52616</v>
       </c>
       <c r="C94" t="n">
-        <v>4532.76</v>
+        <v>4526.16</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.8849</v>
+        <v>2.8785</v>
       </c>
       <c r="B95" t="n">
-        <v>4.5389</v>
+        <v>4.496300000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>4538.9</v>
+        <v>4496.3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91563</v>
+        <v>2.9137</v>
       </c>
       <c r="B96" t="n">
-        <v>4.544930000000001</v>
+        <v>4.46533</v>
       </c>
       <c r="C96" t="n">
-        <v>4544.93</v>
+        <v>4465.33</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94634</v>
+        <v>2.94818</v>
       </c>
       <c r="B97" t="n">
-        <v>4.55087</v>
+        <v>4.42456</v>
       </c>
       <c r="C97" t="n">
-        <v>4550.87</v>
+        <v>4424.56</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97706</v>
+        <v>2.98017</v>
       </c>
       <c r="B98" t="n">
-        <v>4.5567</v>
+        <v>4.395600000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>4556.7</v>
+        <v>4395.6</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00778</v>
+        <v>3.01218</v>
       </c>
       <c r="B99" t="n">
-        <v>4.56242</v>
+        <v>4.362439999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>4562.42</v>
+        <v>4362.44</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.03851</v>
+        <v>3.04417</v>
       </c>
       <c r="B100" t="n">
-        <v>4.56807</v>
+        <v>4.32603</v>
       </c>
       <c r="C100" t="n">
-        <v>4568.07</v>
+        <v>4326.03</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06922</v>
+        <v>3.07617</v>
       </c>
       <c r="B101" t="n">
-        <v>4.57359</v>
+        <v>4.29634</v>
       </c>
       <c r="C101" t="n">
-        <v>4573.59</v>
+        <v>4296.34</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09994</v>
+        <v>3.10817</v>
       </c>
       <c r="B102" t="n">
-        <v>4.57899</v>
+        <v>4.261060000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>4578.99</v>
+        <v>4261.06</v>
       </c>
     </row>
   </sheetData>
